--- a/medicine/Enfance/Luc_Lemli/Luc_Lemli.xlsx
+++ b/medicine/Enfance/Luc_Lemli/Luc_Lemli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luc Lemli, né à Alost (Belgique) le 26 décembre 1935, est un pédiatre belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Luc Lemli étudie au collège Sint Josef dans sa ville natale puis est inscrit à la faculté de médecine à l'université catholique de Louvain. Il en sort diplômé en 1960 et, cette même année, est résident en pédiatrie à l'université du Wisconsin, à Madison. De retour en Belgique, il est docteur résident en pédiatrie à la Stedelijk Ziekenhuis de Termonde entre 1964-1965. Il est nommé chef du service pédiatrie à l'hôpital Onze Lieve Vrouw van Troost à Termonde en 1976. En 1994, il ne pratique plus qu'à son cabinet privé.Dokter Lemli is overleden op 24 augustus 2019.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Luc Lemli est connu pour avoir décrit en 1964 le syndrome de Smith-Lemli-Opitz, de concert avec ses collègues les pédiatres américain David Weyhe Smith (en) (1926-1981) et germano-américain John Marius Opitz (de) (1935-).
 </t>
